--- a/HFH Dashboards/01 DataSets - Input/External Data - Race Counts Dataset/External Data - Race Counts.xlsx
+++ b/HFH Dashboards/01 DataSets - Input/External Data - Race Counts Dataset/External Data - Race Counts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,8 +590,8 @@
   <dimension ref="A1:G523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y461" sqref="Y461"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12443,7 +12443,7 @@
         <v>23</v>
       </c>
       <c r="E516">
-        <v>38066921</v>
+        <v>38066920</v>
       </c>
       <c r="F516" t="s">
         <v>4</v>
@@ -12457,7 +12457,7 @@
         <v>23</v>
       </c>
       <c r="E517">
-        <v>38066922</v>
+        <v>38066920</v>
       </c>
       <c r="F517" t="s">
         <v>5</v>
@@ -12471,7 +12471,7 @@
         <v>23</v>
       </c>
       <c r="E518">
-        <v>38066923</v>
+        <v>38066920</v>
       </c>
       <c r="F518" t="s">
         <v>6</v>
@@ -12485,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="E519">
-        <v>38066924</v>
+        <v>38066920</v>
       </c>
       <c r="F519" t="s">
         <v>7</v>
@@ -12499,7 +12499,7 @@
         <v>23</v>
       </c>
       <c r="E520">
-        <v>38066925</v>
+        <v>38066920</v>
       </c>
       <c r="F520" t="s">
         <v>8</v>
@@ -12513,7 +12513,7 @@
         <v>23</v>
       </c>
       <c r="E521">
-        <v>38066926</v>
+        <v>38066920</v>
       </c>
       <c r="F521" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>23</v>
       </c>
       <c r="E522">
-        <v>38066927</v>
+        <v>38066920</v>
       </c>
       <c r="F522" t="s">
         <v>10</v>
@@ -12541,7 +12541,7 @@
         <v>23</v>
       </c>
       <c r="E523">
-        <v>38066928</v>
+        <v>38066920</v>
       </c>
       <c r="F523" t="s">
         <v>11</v>
